--- a/kontingencni tabulka + graf.xlsx
+++ b/kontingencni tabulka + graf.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projekt-kont-tabulka\Projekt-kontingencni-tabulka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB806EB-9D05-422A-A9CB-2970722F77D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC24C40-EB46-4592-B117-E4F25EC19CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="raw data" sheetId="1" r:id="rId1"/>
+    <sheet name="simple graph1" sheetId="2" r:id="rId2"/>
+    <sheet name="simple graph2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>group_name</t>
   </si>
@@ -60,6 +61,9 @@
   </si>
   <si>
     <t>Součet z total_duration</t>
+  </si>
+  <si>
+    <t>Popisky sloupců</t>
   </si>
 </sst>
 </file>
@@ -115,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -124,10 +128,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -159,40 +159,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[aggregated+kontingencni tab.xlsx]List1!Kontingenční tabulka1</c:name>
+    <c:name>[kontingencni tabulka + graf.xlsx]simple graph1!Kontingenční tabulka1</c:name>
     <c:fmtId val="23"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -249,6 +219,119 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -261,11 +344,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$B$3</c:f>
+              <c:f>'simple graph1'!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Celkem</c:v>
+                  <c:v>Ostatní</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -336,50 +419,31 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>List1!$A$4:$A$13</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>22-5KB-A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>22-5KB-B</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>22-5KB-C</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>22-5KB-D</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>22-5KB-A</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>22-5KB-C</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>22-5KB-D</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Ostatní</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>P</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'simple graph1'!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22-5KB-A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22-5KB-B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22-5KB-C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22-5KB-D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$B$4:$B$13</c:f>
+              <c:f>'simple graph1'!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>420</c:v>
                 </c:pt>
@@ -392,13 +456,130 @@
                 <c:pt idx="3">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="4">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42ED-4CBE-B24F-7974B0D044D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'simple graph1'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'simple graph1'!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22-5KB-A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22-5KB-B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22-5KB-C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22-5KB-D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'simple graph1'!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="2">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="3">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -406,7 +587,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-42ED-4CBE-B24F-7974B0D044D8}"/>
+              <c16:uniqueId val="{00000005-BE6C-44FA-BADA-A9BB2F50CC38}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -595,6 +776,1734 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[kontingencni tabulka + graf.xlsx]simple graph2!Kontingenční tabulka1</c:name>
+    <c:fmtId val="47"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'simple graph2'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22-5KB-A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'simple graph2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ostatní</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'simple graph2'!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB5C-473B-A8A3-346FB1E976D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'simple graph2'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22-5KB-B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'simple graph2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ostatní</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'simple graph2'!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB5C-473B-A8A3-346FB1E976D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'simple graph2'!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22-5KB-C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'simple graph2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ostatní</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'simple graph2'!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AB5C-473B-A8A3-346FB1E976D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'simple graph2'!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22-5KB-D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'simple graph2'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ostatní</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'simple graph2'!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AB5C-473B-A8A3-346FB1E976D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="100"/>
+        <c:axId val="930923663"/>
+        <c:axId val="930916463"/>
+      </c:barChart>
+      <c:valAx>
+        <c:axId val="930916463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="930923663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="930923663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="930916463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1178,16 +3087,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1215,10 +3124,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graf 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A720B4-11FD-45B1-949D-2D1B12DDA1DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Administrator" refreshedDate="45440.354083333332" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{BC79FD0E-87C0-485A-BDBE-1CFB5F8AF38E}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C8" sheet="Sheet1"/>
+    <worksheetSource ref="A1:C8" sheet="raw data"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="group_name" numFmtId="0">
@@ -1288,10 +3240,200 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F04BB05-EB92-43B0-ACF9-E62A6FE1C5B4}" name="Kontingenční tabulka1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F04BB05-EB92-43B0-ACF9-E62A6FE1C5B4}" name="Kontingenční tabulka1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="46">
+  <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Součet z total_duration" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="23" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="44" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="44" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="45" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="45" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="36" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="36" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9202BB75-E039-40D8-A7E8-56CB07936807}" name="Kontingenční tabulka1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="53">
+  <location ref="A3:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisCol" showAll="0">
       <items count="5">
         <item x="0"/>
         <item x="1"/>
@@ -1309,54 +3451,301 @@
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="1"/>
-    <field x="0"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="3">
     <i>
       <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
+    <i t="grand">
       <x/>
     </i>
-    <i r="1">
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
       <x v="2"/>
     </i>
-    <i r="1">
+    <i>
       <x v="3"/>
     </i>
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="Součet z total_duration" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="22">
     <chartFormat chart="23" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="44" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="44" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="45" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="45" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="36" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="36" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="46" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="46" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="47" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="47" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="47" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="47" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="47" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="47" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="46" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="46" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="46" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="46" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -1658,119 +4047,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B265EAA0-0A24-4DF5-ADBE-2FBE6D7118B6}">
-  <dimension ref="A3:B13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1650</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1871,4 +4152,225 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B265EAA0-0A24-4DF5-ADBE-2FBE6D7118B6}">
+  <dimension ref="A3:D9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>420</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>420</v>
+      </c>
+      <c r="D6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>240</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1380</v>
+      </c>
+      <c r="C9">
+        <v>270</v>
+      </c>
+      <c r="D9">
+        <v>1650</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5D0989-AC89-4002-9BC0-22BEB35406C1}">
+  <dimension ref="A3:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>420</v>
+      </c>
+      <c r="C5">
+        <v>420</v>
+      </c>
+      <c r="D5">
+        <v>240</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>510</v>
+      </c>
+      <c r="C7">
+        <v>420</v>
+      </c>
+      <c r="D7">
+        <v>330</v>
+      </c>
+      <c r="E7">
+        <v>390</v>
+      </c>
+      <c r="F7">
+        <v>1650</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>